--- a/SAP/CNM_ZPP_IMPORT_OF - Importação de OF's (PULL).xlsx
+++ b/SAP/CNM_ZPP_IMPORT_OF - Importação de OF's (PULL).xlsx
@@ -664,14 +664,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3820012807</v>
+        <v>3823000934</v>
       </c>
       <c r="C3" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>70003132</t>
+          <t>70023770</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>6000</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211210</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -714,14 +714,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3820012970</v>
+        <v>3823000934</v>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>70005662</t>
+          <t>70023769</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -729,11 +729,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ZNPL</t>
+          <t>ZNEP</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>220</v>
+        <v>6000</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211210</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -764,14 +764,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3820012970</v>
+        <v>3823000949</v>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>70000742</t>
+          <t>70003187</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -779,11 +779,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ZNEP</t>
+          <t>ZNPE</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>220</v>
+        <v>630</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -814,14 +814,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3820012970</v>
+        <v>3823000949</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>70005631</t>
+          <t>70003028</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -829,11 +829,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ZNPL</t>
+          <t>ZNPE</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -864,14 +864,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3820012970</v>
+        <v>3823000949</v>
       </c>
       <c r="C7" t="n">
         <v>10</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>70004074</t>
+          <t>70002998</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -914,14 +914,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3820012942</v>
+        <v>3820016492</v>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>70005612</t>
+          <t>70005688</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211210</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -964,14 +964,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3820012942</v>
+        <v>3820016492</v>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>70000157</t>
+          <t>70023689</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -983,7 +983,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -993,7 +993,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20211210</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -1014,14 +1014,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3823000656</v>
+        <v>3820016492</v>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>70006685</t>
+          <t>70005686</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -1029,11 +1029,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ZNVS</t>
+          <t>ZNPL</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>456</v>
+        <v>333</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>20210806</t>
+          <t>20211210</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -1064,14 +1064,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3823000656</v>
+        <v>3820016492</v>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>70004340</t>
+          <t>70001956</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -1079,11 +1079,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ZNER</t>
+          <t>ZNEP</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>456</v>
+        <v>333</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>20210806</t>
+          <t>20211210</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1114,14 +1114,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3820012898</v>
+        <v>3820016492</v>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>70007177</t>
+          <t>70005687</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -1129,11 +1129,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ZNRL</t>
+          <t>ZNPL</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>350</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>20210917</t>
+          <t>20211210</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1164,24 +1164,26 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3820012898</v>
+        <v>3820016492</v>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>70014077</t>
+          <t>70001957</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>3801</v>
       </c>
-      <c r="F13" t="n">
-        <v/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ZNEP</t>
+        </is>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>350</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1191,7 +1193,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>20210917</t>
+          <t>20211210</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1212,14 +1214,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3820013023</v>
+        <v>3820016492</v>
       </c>
       <c r="C14" t="n">
         <v>20</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>70024215</t>
+          <t>70005684</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1231,7 +1233,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1241,7 +1243,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>20211022</t>
+          <t>20211210</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1262,22 +1264,26 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3820013023</v>
+        <v>3820016492</v>
       </c>
       <c r="C15" t="n">
         <v>20</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>70025352</t>
+          <t>70001954</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>3801</v>
       </c>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>ZNEP</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1287,7 +1293,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>20211022</t>
+          <t>20211210</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1308,22 +1314,26 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3820013023</v>
+        <v>3820016492</v>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>70025351</t>
+          <t>70005683</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>3801</v>
       </c>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ZNPL</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1333,7 +1343,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>20211022</t>
+          <t>20211210</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1354,22 +1364,26 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3820013023</v>
+        <v>3820016492</v>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>70025350</t>
+          <t>70011335</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>3801</v>
       </c>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>ZNEP</t>
+        </is>
+      </c>
       <c r="G17" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1379,7 +1393,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>20211022</t>
+          <t>20211210</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1400,14 +1414,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3820012975</v>
+        <v>3823000917</v>
       </c>
       <c r="C18" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>70005673</t>
+          <t>70023391</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1419,7 +1433,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>320</v>
+        <v>780</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1429,7 +1443,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>20211217</t>
+          <t>20211210</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1450,14 +1464,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3820012975</v>
+        <v>3823000917</v>
       </c>
       <c r="C19" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>70005672</t>
+          <t>70023364</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1465,11 +1479,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ZNPL</t>
+          <t>ZNEP</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>400</v>
+        <v>780</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1479,7 +1493,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>20211217</t>
+          <t>20211210</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1500,14 +1514,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3820012975</v>
+        <v>3823000917</v>
       </c>
       <c r="C20" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>70005671</t>
+          <t>70006016</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1519,7 +1533,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>520</v>
+        <v>180</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1529,7 +1543,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>20211217</t>
+          <t>20211210</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1550,14 +1564,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3820012975</v>
+        <v>3823000917</v>
       </c>
       <c r="C21" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>70005670</t>
+          <t>70002761</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1565,11 +1579,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ZNPL</t>
+          <t>ZNEP</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1579,7 +1593,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20211217</t>
+          <t>20211210</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1600,14 +1614,14 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3820012975</v>
+        <v>3823000917</v>
       </c>
       <c r="C22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>70005669</t>
+          <t>70006014</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1619,7 +1633,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>760</v>
+        <v>150</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1629,7 +1643,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>20211217</t>
+          <t>20211210</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1650,14 +1664,14 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3820012975</v>
+        <v>3823000917</v>
       </c>
       <c r="C23" t="n">
         <v>20</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>70005668</t>
+          <t>70002758</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1665,11 +1679,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ZNPL</t>
+          <t>ZNEP</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1679,7 +1693,7 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>20211217</t>
+          <t>20211210</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1700,14 +1714,14 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3820012975</v>
+        <v>3823000917</v>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>70005667</t>
+          <t>70006015</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1719,7 +1733,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1729,7 +1743,7 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>20211217</t>
+          <t>20211210</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1746,99 +1760,954 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="n"/>
-      <c r="M25" s="4" t="n"/>
-      <c r="N25" s="4" t="n"/>
+      <c r="A25" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3823000917</v>
+      </c>
+      <c r="C25" t="n">
+        <v>10</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>70002757</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>ZNEP</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>168</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>20211210</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N25" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="n"/>
-      <c r="M26" s="4" t="n"/>
-      <c r="N26" s="4" t="n"/>
+      <c r="A26" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3823000925</v>
+      </c>
+      <c r="C26" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>70005571</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>ZNPL</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>8250</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>20211210</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N26" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="n"/>
-      <c r="M27" s="4" t="n"/>
-      <c r="N27" s="4" t="n"/>
+      <c r="A27" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3823000925</v>
+      </c>
+      <c r="C27" t="n">
+        <v>10</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>70004916</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>ZNEP</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>8250</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>20211210</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N27" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="n"/>
-      <c r="M28" s="4" t="n"/>
-      <c r="N28" s="4" t="n"/>
+      <c r="A28" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3823000928</v>
+      </c>
+      <c r="C28" t="n">
+        <v>10</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>70005565</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>ZNPL</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>16500</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>20211210</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N28" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="n"/>
-      <c r="M29" s="4" t="n"/>
-      <c r="N29" s="4" t="n"/>
+      <c r="A29" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3823000928</v>
+      </c>
+      <c r="C29" t="n">
+        <v>10</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>70004915</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>ZNEP</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>16500</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>20211210</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N29" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n"/>
-      <c r="M30" s="4" t="n"/>
-      <c r="N30" s="4" t="n"/>
+      <c r="A30" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3823000941</v>
+      </c>
+      <c r="C30" t="n">
+        <v>40</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>70006567</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>ZNRL</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>24</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>20211126</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N30" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="n"/>
-      <c r="M31" s="4" t="n"/>
-      <c r="N31" s="4" t="n"/>
+      <c r="A31" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3823000941</v>
+      </c>
+      <c r="C31" t="n">
+        <v>40</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>70005477</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>ZNER</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>24</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>20211126</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N31" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="n"/>
-      <c r="M32" s="4" t="n"/>
-      <c r="N32" s="4" t="n"/>
+      <c r="A32" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3823000950</v>
+      </c>
+      <c r="C32" t="n">
+        <v>40</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>70009229</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>ZNVS</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>60</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>20211126</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N32" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="n"/>
-      <c r="M33" s="4" t="n"/>
-      <c r="N33" s="4" t="n"/>
+      <c r="A33" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3823000950</v>
+      </c>
+      <c r="C33" t="n">
+        <v>40</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>70015494</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>ZNER</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>60</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>20211126</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N33" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n"/>
-      <c r="M34" s="4" t="n"/>
-      <c r="N34" s="4" t="n"/>
+      <c r="A34" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3823001115</v>
+      </c>
+      <c r="C34" t="n">
+        <v>80</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>70007034</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>ZRPL</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1960</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>20220225</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N34" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="n"/>
-      <c r="M35" s="4" t="n"/>
-      <c r="N35" s="4" t="n"/>
+      <c r="A35" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3823001115</v>
+      </c>
+      <c r="C35" t="n">
+        <v>80</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>70005434</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>ZNEP</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1960</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>20220225</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N35" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="n"/>
-      <c r="M36" s="4" t="n"/>
-      <c r="N36" s="4" t="n"/>
+      <c r="A36" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3823001115</v>
+      </c>
+      <c r="C36" t="n">
+        <v>50</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>70006612</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>ZNVS</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>64</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>20220225</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N36" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="n"/>
-      <c r="M37" s="4" t="n"/>
-      <c r="N37" s="4" t="n"/>
+      <c r="A37" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3823001115</v>
+      </c>
+      <c r="C37" t="n">
+        <v>50</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>70004316</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>ZNER</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>64</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>20220225</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N37" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="n"/>
-      <c r="M38" s="4" t="n"/>
-      <c r="N38" s="4" t="n"/>
+      <c r="A38" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3823001115</v>
+      </c>
+      <c r="C38" t="n">
+        <v>40</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>70006896</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>ZNVS</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>4</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>20220225</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N38" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="n"/>
-      <c r="M39" s="4" t="n"/>
-      <c r="N39" s="4" t="n"/>
+      <c r="A39" s="4" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3823001115</v>
+      </c>
+      <c r="C39" t="n">
+        <v>40</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>70004308</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>ZNER</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>4</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>20220225</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N39" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="n"/>
-      <c r="M40" s="4" t="n"/>
-      <c r="N40" s="4" t="n"/>
+      <c r="A40" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3823001115</v>
+      </c>
+      <c r="C40" t="n">
+        <v>30</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>70005776</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>ZNPL</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>12000</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>20220225</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N40" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="n"/>
-      <c r="M41" s="4" t="n"/>
-      <c r="N41" s="4" t="n"/>
+      <c r="A41" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3823001115</v>
+      </c>
+      <c r="C41" t="n">
+        <v>30</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>70001797</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>ZNEP</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>12000</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>20220225</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N41" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="n"/>
-      <c r="M42" s="4" t="n"/>
-      <c r="N42" s="4" t="n"/>
+      <c r="A42" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3823001115</v>
+      </c>
+      <c r="C42" t="n">
+        <v>20</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>70005773</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>ZNPL</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>12600</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>20220225</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N42" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="n"/>
-      <c r="M43" s="4" t="n"/>
-      <c r="N43" s="4" t="n"/>
+      <c r="A43" s="4" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3823001115</v>
+      </c>
+      <c r="C43" t="n">
+        <v>20</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>70004334</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>ZNEP</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>12600</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>20220225</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N43" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="n"/>

--- a/SAP/CNM_ZPP_IMPORT_OF - Importação de OF's (PULL).xlsx
+++ b/SAP/CNM_ZPP_IMPORT_OF - Importação de OF's (PULL).xlsx
@@ -664,14 +664,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3823000934</v>
+        <v>3823001118</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>70023770</t>
+          <t>70008971</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -679,11 +679,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ZNPL</t>
+          <t>ZNVS</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>6000</v>
+        <v>24</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>20211210</t>
+          <t>20211217</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -714,26 +714,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3823000934</v>
+        <v>3823001118</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>70023769</t>
+          <t>70026715</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>3801</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>ZNEP</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>6000</v>
+        <v>24</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -743,7 +739,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>20211210</t>
+          <t>20211217</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -764,14 +760,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3823000949</v>
+        <v>3823001118</v>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>70003187</t>
+          <t>70006573</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -779,11 +775,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ZNPE</t>
+          <t>ZNMA</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>630</v>
+        <v>800</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -793,7 +789,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20211217</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -814,14 +810,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3823000949</v>
+        <v>3823001118</v>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>70003028</t>
+          <t>70006592</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -829,11 +825,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ZNPE</t>
+          <t>ZNMA</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -843,7 +839,7 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20211217</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -864,26 +860,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3823000949</v>
+        <v>3823001118</v>
       </c>
       <c r="C7" t="n">
         <v>10</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>70002998</t>
+          <t>70026714</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>3801</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>ZNEP</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -893,7 +885,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20211217</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -914,14 +906,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3820016492</v>
+        <v>3823001123</v>
       </c>
       <c r="C8" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>70005688</t>
+          <t>70009115</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -929,11 +921,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ZNPL</t>
+          <t>ZNVS</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -943,7 +935,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>20211210</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -964,14 +956,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3820016492</v>
+        <v>3823001123</v>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>70023689</t>
+          <t>70009116</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -979,11 +971,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ZNEP</t>
+          <t>ZNER</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -993,7 +985,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>20211210</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -1014,14 +1006,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3820016492</v>
+        <v>3823001123</v>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>70005686</t>
+          <t>70005771</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -1033,7 +1025,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>333</v>
+        <v>2356</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1043,7 +1035,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>20211210</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -1064,14 +1056,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3820016492</v>
+        <v>3823001123</v>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>70001956</t>
+          <t>70004332</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -1083,7 +1075,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>333</v>
+        <v>2356</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1093,7 +1085,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>20211210</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1114,14 +1106,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3820016492</v>
+        <v>3823001123</v>
       </c>
       <c r="C12" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>70005687</t>
+          <t>70009085</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -1129,11 +1121,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ZNPL</t>
+          <t>ZNRL</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1143,7 +1135,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>20211210</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1164,14 +1156,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3820016492</v>
+        <v>3823001123</v>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>70001957</t>
+          <t>70003543</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -1179,11 +1171,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ZNEP</t>
+          <t>ZNER</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1193,7 +1185,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>20211210</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1214,14 +1206,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3820016492</v>
+        <v>3823001123</v>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>70005684</t>
+          <t>70009114</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1229,11 +1221,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ZNPL</t>
+          <t>ZNRL</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>300</v>
+        <v>8</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1243,7 +1235,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>20211210</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1264,14 +1256,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3820016492</v>
+        <v>3823001123</v>
       </c>
       <c r="C15" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>70001954</t>
+          <t>70003527</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1279,11 +1271,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ZNEP</t>
+          <t>ZNER</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>300</v>
+        <v>8</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1293,7 +1285,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>20211210</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1314,14 +1306,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3820016492</v>
+        <v>3823001123</v>
       </c>
       <c r="C16" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>70005683</t>
+          <t>70006804</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1329,11 +1321,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ZNPL</t>
+          <t>ZNVS</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1343,7 +1335,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>20211210</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1364,14 +1356,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3820016492</v>
+        <v>3823001123</v>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>70011335</t>
+          <t>70002524</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1379,11 +1371,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ZNEP</t>
+          <t>ZNER</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1393,7 +1385,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>20211210</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1414,14 +1406,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3823000917</v>
+        <v>3823001123</v>
       </c>
       <c r="C18" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>70023391</t>
+          <t>70006901</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1429,11 +1421,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ZNPL</t>
+          <t>ZNVS</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>780</v>
+        <v>2</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1443,7 +1435,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>20211210</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1464,14 +1456,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3823000917</v>
+        <v>3823001123</v>
       </c>
       <c r="C19" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>70023364</t>
+          <t>70002462</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1479,11 +1471,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ZNEP</t>
+          <t>ZNER</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>780</v>
+        <v>2</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1493,7 +1485,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>20211210</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1514,14 +1506,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3823000917</v>
+        <v>3823001123</v>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>70006016</t>
+          <t>70006735</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1529,11 +1521,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ZNPL</t>
+          <t>ZNMM</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>180</v>
+        <v>57.6</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1543,7 +1535,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>20211210</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1564,14 +1556,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3823000917</v>
+        <v>3823001123</v>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>70002761</t>
+          <t>70006785</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1579,11 +1571,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ZNEP</t>
+          <t>ZNMM</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1593,7 +1585,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20211210</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1614,14 +1606,14 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3823000917</v>
+        <v>3823001123</v>
       </c>
       <c r="C22" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>70006014</t>
+          <t>70002378</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1629,11 +1621,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ZNPL</t>
+          <t>ZNER</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1643,7 +1635,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>20211210</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1664,14 +1656,14 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3823000917</v>
+        <v>3823001123</v>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>70002758</t>
+          <t>70001925</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1679,11 +1671,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ZNEP</t>
+          <t>ZNER</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1693,7 +1685,7 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>20211210</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1714,14 +1706,14 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3823000917</v>
+        <v>3823001123</v>
       </c>
       <c r="C24" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>70006015</t>
+          <t>70008733</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1729,11 +1721,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ZNPL</t>
+          <t>ZNVS</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1743,7 +1735,7 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>20211210</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1764,14 +1756,14 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3823000917</v>
+        <v>3823001123</v>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>70002757</t>
+          <t>70001615</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1779,11 +1771,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ZNEP</t>
+          <t>ZNER</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1793,7 +1785,7 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>20211210</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1814,14 +1806,14 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3823000925</v>
+        <v>3820016492</v>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>70005571</t>
+          <t>70005688</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1833,7 +1825,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>8250</v>
+        <v>180</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1843,7 +1835,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>20211210</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -1864,14 +1856,14 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3823000925</v>
+        <v>3820016492</v>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>70004916</t>
+          <t>70023689</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1883,7 +1875,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>8250</v>
+        <v>180</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1893,7 +1885,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>20211210</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -1914,14 +1906,14 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3823000928</v>
+        <v>3820016492</v>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>70005565</t>
+          <t>70005686</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1933,7 +1925,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>16500</v>
+        <v>333</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1943,7 +1935,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>20211210</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -1964,14 +1956,14 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3823000928</v>
+        <v>3820016492</v>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>70004915</t>
+          <t>70001956</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1983,7 +1975,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>16500</v>
+        <v>333</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1993,7 +1985,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>20211210</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -2014,14 +2006,14 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3823000941</v>
+        <v>3820016492</v>
       </c>
       <c r="C30" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>70006567</t>
+          <t>70005687</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -2029,11 +2021,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ZNRL</t>
+          <t>ZNPL</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>24</v>
+        <v>350</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2043,7 +2035,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>20211126</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -2064,14 +2056,14 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3823000941</v>
+        <v>3820016492</v>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>70005477</t>
+          <t>70001957</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -2079,11 +2071,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ZNER</t>
+          <t>ZNEP</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>24</v>
+        <v>350</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2093,7 +2085,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>20211126</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2114,14 +2106,14 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3823000950</v>
+        <v>3820016492</v>
       </c>
       <c r="C32" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>70009229</t>
+          <t>70005684</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -2129,11 +2121,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ZNVS</t>
+          <t>ZNPL</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2143,7 +2135,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>20211126</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2164,14 +2156,14 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3823000950</v>
+        <v>3820016492</v>
       </c>
       <c r="C33" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>70015494</t>
+          <t>70001954</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -2179,11 +2171,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ZNER</t>
+          <t>ZNEP</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2193,7 +2185,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>20211126</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2214,14 +2206,14 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3823001115</v>
+        <v>3820016492</v>
       </c>
       <c r="C34" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>70007034</t>
+          <t>70005683</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -2229,11 +2221,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ZRPL</t>
+          <t>ZNPL</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1960</v>
+        <v>100</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2243,7 +2235,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>20220225</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2264,14 +2256,14 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3823001115</v>
+        <v>3820016492</v>
       </c>
       <c r="C35" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>70005434</t>
+          <t>70011335</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -2283,7 +2275,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1960</v>
+        <v>100</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2293,7 +2285,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>20220225</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2317,11 +2309,11 @@
         <v>3823001115</v>
       </c>
       <c r="C36" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>70006612</t>
+          <t>70007034</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -2329,11 +2321,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ZNVS</t>
+          <t>ZRPL</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>64</v>
+        <v>1960</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2343,7 +2335,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>20220225</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2367,11 +2359,11 @@
         <v>3823001115</v>
       </c>
       <c r="C37" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>70004316</t>
+          <t>70005434</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -2379,11 +2371,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ZNER</t>
+          <t>ZNEP</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>64</v>
+        <v>1960</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2393,7 +2385,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>20220225</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2417,11 +2409,11 @@
         <v>3823001115</v>
       </c>
       <c r="C38" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>70006896</t>
+          <t>70006612</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -2433,7 +2425,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2443,7 +2435,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>20220225</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2467,11 +2459,11 @@
         <v>3823001115</v>
       </c>
       <c r="C39" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>70004308</t>
+          <t>70004316</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -2483,7 +2475,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2493,7 +2485,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>20220225</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2517,11 +2509,11 @@
         <v>3823001115</v>
       </c>
       <c r="C40" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>70005776</t>
+          <t>70006896</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -2529,11 +2521,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>ZNPL</t>
+          <t>ZNVS</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>12000</v>
+        <v>4</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -2543,7 +2535,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>20220225</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2567,11 +2559,11 @@
         <v>3823001115</v>
       </c>
       <c r="C41" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>70001797</t>
+          <t>70004308</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -2579,11 +2571,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>ZNEP</t>
+          <t>ZNER</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>12000</v>
+        <v>4</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -2593,7 +2585,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>20220225</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2617,11 +2609,11 @@
         <v>3823001115</v>
       </c>
       <c r="C42" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>70005773</t>
+          <t>70005776</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -2633,7 +2625,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>12600</v>
+        <v>12000</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2643,7 +2635,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>20220225</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2667,11 +2659,11 @@
         <v>3823001115</v>
       </c>
       <c r="C43" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>70004334</t>
+          <t>70001797</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -2683,7 +2675,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>12600</v>
+        <v>12000</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2693,7 +2685,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>20220225</t>
+          <t>20211203</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2710,29 +2702,246 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="n"/>
-      <c r="M44" s="4" t="n"/>
-      <c r="N44" s="4" t="n"/>
+      <c r="A44" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3823001115</v>
+      </c>
+      <c r="C44" t="n">
+        <v>20</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>70005773</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>ZNPL</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>12600</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>20211203</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N44" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="n"/>
-      <c r="M45" s="4" t="n"/>
-      <c r="N45" s="4" t="n"/>
+      <c r="A45" s="4" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3823001115</v>
+      </c>
+      <c r="C45" t="n">
+        <v>20</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>70004334</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>ZNEP</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>12600</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>20211203</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N45" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="n"/>
-      <c r="M46" s="4" t="n"/>
-      <c r="N46" s="4" t="n"/>
+      <c r="A46" s="4" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3820016510</v>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>70026664</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>25</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>20211203</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N46" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="n"/>
-      <c r="M47" s="4" t="n"/>
-      <c r="N47" s="4" t="n"/>
+      <c r="A47" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3820016510</v>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>70026663</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>25</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>20211203</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N47" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="n"/>
-      <c r="M48" s="4" t="n"/>
-      <c r="N48" s="4" t="n"/>
+      <c r="A48" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3825000036</v>
+      </c>
+      <c r="C48" t="n">
+        <v>10</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>70001773</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>ZNEI</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>20211203</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N48" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="n"/>

--- a/SAP/CNM_ZPP_IMPORT_OF - Importação de OF's (PULL).xlsx
+++ b/SAP/CNM_ZPP_IMPORT_OF - Importação de OF's (PULL).xlsx
@@ -664,26 +664,26 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3823001118</v>
+        <v>3820017709</v>
       </c>
       <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>70002593</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ZNLE</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>20</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>70008971</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>ZNVS</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>24</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>20211217</t>
+          <t>20220604</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -714,22 +714,26 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3823001118</v>
+        <v>3820017708</v>
       </c>
       <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>70002593</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ZNLE</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>20</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>70026715</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>3801</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
-        <v>24</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -739,7 +743,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>20211217</t>
+          <t>20220507</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -760,26 +764,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3823001118</v>
+        <v>3823001397</v>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>70006573</t>
+          <t>70026797</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>3801</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>ZNMA</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>20211217</t>
+          <t>20220416</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -810,26 +810,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3823001118</v>
+        <v>3823001397</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>70006592</t>
+          <t>70026798</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>3801</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>ZNMA</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -839,7 +835,7 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>20211217</t>
+          <t>20220416</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -860,22 +856,26 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3823001118</v>
+        <v>3823001401</v>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>70026714</t>
+          <t>70008944</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>3801</v>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ZNVS</t>
+        </is>
+      </c>
       <c r="G7" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>20211217</t>
+          <t>20220319</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -906,14 +906,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3823001123</v>
+        <v>3823001401</v>
       </c>
       <c r="C8" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>70009115</t>
+          <t>70008945</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -921,11 +921,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ZNVS</t>
+          <t>ZNER</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220319</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -956,14 +956,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3823001123</v>
+        <v>3823001401</v>
       </c>
       <c r="C9" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>70009116</t>
+          <t>70008947</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -971,11 +971,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ZNER</t>
+          <t>ZNVS</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220319</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -1006,14 +1006,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3823001123</v>
+        <v>3823001401</v>
       </c>
       <c r="C10" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>70005771</t>
+          <t>70007526</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -1021,11 +1021,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ZNPL</t>
+          <t>ZNER</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2356</v>
+        <v>20</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220319</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -1056,14 +1056,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3823001123</v>
+        <v>3823001401</v>
       </c>
       <c r="C11" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>70004332</t>
+          <t>70006379</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -1071,11 +1071,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ZNEP</t>
+          <t>ZNRL</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2356</v>
+        <v>353.54</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220319</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1106,14 +1106,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3823001123</v>
+        <v>3823001401</v>
       </c>
       <c r="C12" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>70009085</t>
+          <t>70008951</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -1121,11 +1121,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ZNRL</t>
+          <t>ZNMM</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220319</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1156,14 +1156,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3823001123</v>
+        <v>3823001401</v>
       </c>
       <c r="C13" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>70003543</t>
+          <t>70007525</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220319</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1206,14 +1206,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3823001123</v>
+        <v>3823001401</v>
       </c>
       <c r="C14" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>70009114</t>
+          <t>70008954</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220319</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1256,14 +1256,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3823001123</v>
+        <v>3823001401</v>
       </c>
       <c r="C15" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>70003527</t>
+          <t>70004822</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220319</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1306,14 +1306,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3823001123</v>
+        <v>3823001401</v>
       </c>
       <c r="C16" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>70006804</t>
+          <t>70008939</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1321,11 +1321,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ZNVS</t>
+          <t>ZNRL</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220319</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1356,14 +1356,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3823001123</v>
+        <v>3823001401</v>
       </c>
       <c r="C17" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>70002524</t>
+          <t>70004821</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220319</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1406,14 +1406,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3823001123</v>
+        <v>3823001401</v>
       </c>
       <c r="C18" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>70006901</t>
+          <t>70008942</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220319</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1456,14 +1456,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3823001123</v>
+        <v>3823001401</v>
       </c>
       <c r="C19" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>70002462</t>
+          <t>70004819</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220319</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1506,14 +1506,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3823001123</v>
+        <v>3823001401</v>
       </c>
       <c r="C20" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>70006735</t>
+          <t>70000033</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1521,11 +1521,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ZNMM</t>
+          <t>ZNPL</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>57.6</v>
+        <v>840</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220319</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1556,14 +1556,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3823001123</v>
+        <v>3823001401</v>
       </c>
       <c r="C21" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>70006785</t>
+          <t>70004806</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1571,11 +1571,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ZNMM</t>
+          <t>ZNEP</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>840</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220319</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1606,14 +1606,14 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3823001123</v>
+        <v>3823001401</v>
       </c>
       <c r="C22" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>70002378</t>
+          <t>70000086</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1621,11 +1621,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ZNER</t>
+          <t>ZNPL</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>946</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220319</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1656,14 +1656,14 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3823001123</v>
+        <v>3823001401</v>
       </c>
       <c r="C23" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>70001925</t>
+          <t>70004805</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1671,11 +1671,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ZNER</t>
+          <t>ZNEP</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>20</v>
+        <v>946</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220319</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1706,14 +1706,14 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3823001123</v>
+        <v>3823001399</v>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>70008733</t>
+          <t>70005565</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1721,11 +1721,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ZNVS</t>
+          <t>ZNPL</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>100</v>
+        <v>3500</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220219</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1756,14 +1756,14 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3823001123</v>
+        <v>3823001399</v>
       </c>
       <c r="C25" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>70001615</t>
+          <t>70007642</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1771,11 +1771,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ZNER</t>
+          <t>ZNEP</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>100</v>
+        <v>3500</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220219</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1806,14 +1806,14 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3820016492</v>
+        <v>3823001399</v>
       </c>
       <c r="C26" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>70005688</t>
+          <t>70007730</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>180</v>
+        <v>2800</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220219</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -1856,14 +1856,14 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3820016492</v>
+        <v>3823001399</v>
       </c>
       <c r="C27" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>70023689</t>
+          <t>70007641</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>180</v>
+        <v>2800</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220219</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -1906,14 +1906,14 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3820016492</v>
+        <v>3820017793</v>
       </c>
       <c r="C28" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>70005686</t>
+          <t>70005220</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1921,11 +1921,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ZNPL</t>
+          <t>ZNLE</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>333</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220212</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -1956,14 +1956,14 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3820016492</v>
+        <v>3820017793</v>
       </c>
       <c r="C29" t="n">
         <v>40</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>70001956</t>
+          <t>70004777</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1971,11 +1971,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ZNEP</t>
+          <t>ZNLE</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>333</v>
+        <v>6</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220212</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -2006,14 +2006,14 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3820016492</v>
+        <v>3820017793</v>
       </c>
       <c r="C30" t="n">
         <v>30</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>70005687</t>
+          <t>70004933</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -2021,11 +2021,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ZNPL</t>
+          <t>ZNLE</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>350</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220212</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -2056,14 +2056,14 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3820016492</v>
+        <v>3820017793</v>
       </c>
       <c r="C31" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>70001957</t>
+          <t>70011290</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -2071,11 +2071,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ZNEP</t>
+          <t>ZNPL</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220212</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2106,14 +2106,14 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3820016492</v>
+        <v>3820017793</v>
       </c>
       <c r="C32" t="n">
         <v>20</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>70005684</t>
+          <t>70000165</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -2121,11 +2121,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ZNPL</t>
+          <t>ZNEP</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220212</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2156,14 +2156,14 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3820016492</v>
+        <v>3820017793</v>
       </c>
       <c r="C33" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>70001954</t>
+          <t>70005795</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -2171,11 +2171,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ZNEP</t>
+          <t>ZNPL</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220212</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2206,14 +2206,14 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3820016492</v>
+        <v>3820017793</v>
       </c>
       <c r="C34" t="n">
         <v>10</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>70005683</t>
+          <t>70010957</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -2221,11 +2221,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ZNPL</t>
+          <t>ZNEP</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220212</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2256,26 +2256,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3820016492</v>
+        <v>3820017795</v>
       </c>
       <c r="C35" t="n">
         <v>10</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>70011335</t>
+          <t>70026978</t>
         </is>
       </c>
       <c r="E35" t="n">
         <v>3801</v>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>ZNEP</t>
-        </is>
-      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2285,7 +2281,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220212</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2306,26 +2302,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3823001115</v>
+        <v>3820017795</v>
       </c>
       <c r="C36" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>70007034</t>
+          <t>70026977</t>
         </is>
       </c>
       <c r="E36" t="n">
         <v>3801</v>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>ZRPL</t>
-        </is>
-      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
-        <v>1960</v>
+        <v>192</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2335,7 +2327,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220212</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2356,14 +2348,14 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3823001115</v>
+        <v>3820017792</v>
       </c>
       <c r="C37" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>70005434</t>
+          <t>70008793</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -2371,11 +2363,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ZNEP</t>
+          <t>ZNVS</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1960</v>
+        <v>4</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2385,7 +2377,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220129</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2406,14 +2398,14 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3823001115</v>
+        <v>3820017792</v>
       </c>
       <c r="C38" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>70006612</t>
+          <t>70000259</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -2421,11 +2413,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ZNVS</t>
+          <t>ZNER</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2435,7 +2427,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220129</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2456,14 +2448,14 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3823001115</v>
+        <v>3820017786</v>
       </c>
       <c r="C39" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>70004316</t>
+          <t>70007239</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -2471,11 +2463,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>ZNER</t>
+          <t>ZNPL</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>64</v>
+        <v>200</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2485,7 +2477,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220122</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2506,14 +2498,14 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3823001115</v>
+        <v>3820017786</v>
       </c>
       <c r="C40" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>70006896</t>
+          <t>70014372</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -2521,11 +2513,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>ZNVS</t>
+          <t>ZNPE</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -2535,7 +2527,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220122</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2556,14 +2548,14 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3823001115</v>
+        <v>3820017789</v>
       </c>
       <c r="C41" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>70004308</t>
+          <t>70000238</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -2571,11 +2563,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>ZNER</t>
+          <t>ZNPL</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -2585,7 +2577,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220122</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2606,14 +2598,14 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3823001115</v>
+        <v>3820017789</v>
       </c>
       <c r="C42" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>70005776</t>
+          <t>70021828</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -2621,11 +2613,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>ZNPL</t>
+          <t>ZNEP</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>12000</v>
+        <v>85</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2635,7 +2627,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220122</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2656,14 +2648,14 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3823001115</v>
+        <v>3820017790</v>
       </c>
       <c r="C43" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>70001797</t>
+          <t>70005632</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -2671,11 +2663,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>ZNEP</t>
+          <t>ZNPL</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>12000</v>
+        <v>2128</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2685,7 +2677,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220122</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2706,14 +2698,14 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3823001115</v>
+        <v>3820017790</v>
       </c>
       <c r="C44" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>70005773</t>
+          <t>70004220</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -2721,11 +2713,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>ZNPL</t>
+          <t>ZNEP</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>12600</v>
+        <v>2128</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -2735,7 +2727,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220122</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2756,14 +2748,14 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3823001115</v>
+        <v>3820017790</v>
       </c>
       <c r="C45" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>70004334</t>
+          <t>70005631</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -2771,11 +2763,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>ZNEP</t>
+          <t>ZNPL</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>12600</v>
+        <v>1400</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2785,7 +2777,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220122</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -2806,22 +2798,26 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3820016510</v>
+        <v>3820017790</v>
       </c>
       <c r="C46" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>70026664</t>
+          <t>70000522</t>
         </is>
       </c>
       <c r="E46" t="n">
         <v>3801</v>
       </c>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>ZNEP</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>25</v>
+        <v>1400</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2831,7 +2827,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220122</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -2852,22 +2848,26 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3820016510</v>
+        <v>3820017790</v>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>70026663</t>
+          <t>70005630</t>
         </is>
       </c>
       <c r="E47" t="n">
         <v>3801</v>
       </c>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>ZNPL</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>25</v>
+        <v>2072</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220122</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -2898,14 +2898,14 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3825000036</v>
+        <v>3820017790</v>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>70001773</t>
+          <t>70001552</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -2913,11 +2913,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>ZNEI</t>
+          <t>ZNEP</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>2072</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>20211203</t>
+          <t>20220122</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -2944,144 +2944,1364 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="n"/>
-      <c r="M49" s="4" t="n"/>
-      <c r="N49" s="4" t="n"/>
+      <c r="A49" s="4" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3820017790</v>
+      </c>
+      <c r="C49" t="n">
+        <v>50</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>70005641</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>ZNPL</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>672</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>20220122</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N49" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="n"/>
-      <c r="M50" s="4" t="n"/>
-      <c r="N50" s="4" t="n"/>
+      <c r="A50" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3820017790</v>
+      </c>
+      <c r="C50" t="n">
+        <v>50</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>70024702</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>ZNEP</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>672</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>20220122</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N50" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="n"/>
-      <c r="M51" s="4" t="n"/>
-      <c r="N51" s="4" t="n"/>
+      <c r="A51" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>3820017790</v>
+      </c>
+      <c r="C51" t="n">
+        <v>40</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>70005638</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>ZNPL</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>840</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>20220122</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N51" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="n"/>
-      <c r="M52" s="4" t="n"/>
-      <c r="N52" s="4" t="n"/>
+      <c r="A52" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3820017790</v>
+      </c>
+      <c r="C52" t="n">
+        <v>40</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>70024739</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>ZNEP</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>840</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>20220122</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N52" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="n"/>
-      <c r="M53" s="4" t="n"/>
-      <c r="N53" s="4" t="n"/>
+      <c r="A53" s="4" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3820017790</v>
+      </c>
+      <c r="C53" t="n">
+        <v>30</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>70005637</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>ZNPL</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>616</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>20220122</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N53" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="n"/>
-      <c r="M54" s="4" t="n"/>
-      <c r="N54" s="4" t="n"/>
+      <c r="A54" s="4" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>3820017790</v>
+      </c>
+      <c r="C54" t="n">
+        <v>30</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>70024701</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>ZNEP</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>616</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>20220122</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N54" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="4" t="n"/>
-      <c r="M55" s="4" t="n"/>
-      <c r="N55" s="4" t="n"/>
+      <c r="A55" s="4" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>3820017790</v>
+      </c>
+      <c r="C55" t="n">
+        <v>20</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>70005636</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>ZNPL</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>728</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>20220122</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N55" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="n"/>
-      <c r="M56" s="4" t="n"/>
-      <c r="N56" s="4" t="n"/>
+      <c r="A56" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>3820017790</v>
+      </c>
+      <c r="C56" t="n">
+        <v>20</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>70024700</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>ZNEP</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>728</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>20220122</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N56" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="4" t="n"/>
-      <c r="M57" s="4" t="n"/>
-      <c r="N57" s="4" t="n"/>
+      <c r="A57" s="4" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>3820017790</v>
+      </c>
+      <c r="C57" t="n">
+        <v>10</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>70005635</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>ZNPL</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>840</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>20220122</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N57" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="4" t="n"/>
-      <c r="M58" s="4" t="n"/>
-      <c r="N58" s="4" t="n"/>
+      <c r="A58" s="4" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3820017790</v>
+      </c>
+      <c r="C58" t="n">
+        <v>10</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>70024699</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>ZNEP</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>840</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>20220122</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N58" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="4" t="n"/>
-      <c r="M59" s="4" t="n"/>
-      <c r="N59" s="4" t="n"/>
+      <c r="A59" s="4" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>3820017810</v>
+      </c>
+      <c r="C59" t="n">
+        <v>60</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>70005665</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>ZNPL</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>60</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>20220122</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N59" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="n"/>
-      <c r="M60" s="4" t="n"/>
-      <c r="N60" s="4" t="n"/>
+      <c r="A60" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>3820017810</v>
+      </c>
+      <c r="C60" t="n">
+        <v>60</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>70003242</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>ZNEP</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>60</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>20220122</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N60" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="4" t="n"/>
-      <c r="M61" s="4" t="n"/>
-      <c r="N61" s="4" t="n"/>
+      <c r="A61" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>3820017810</v>
+      </c>
+      <c r="C61" t="n">
+        <v>30</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>70005791</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>ZNPL</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>120</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>20220122</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N61" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="4" t="n"/>
-      <c r="M62" s="4" t="n"/>
-      <c r="N62" s="4" t="n"/>
+      <c r="A62" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3820017810</v>
+      </c>
+      <c r="C62" t="n">
+        <v>30</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>70003602</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>ZNEP</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>120</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>20220122</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N62" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="4" t="n"/>
-      <c r="M63" s="4" t="n"/>
-      <c r="N63" s="4" t="n"/>
+      <c r="A63" s="4" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3820017810</v>
+      </c>
+      <c r="C63" t="n">
+        <v>20</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>70005789</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>ZNPL</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>300</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>20220122</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N63" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="4" t="n"/>
-      <c r="M64" s="4" t="n"/>
-      <c r="N64" s="4" t="n"/>
+      <c r="A64" s="4" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3820017810</v>
+      </c>
+      <c r="C64" t="n">
+        <v>20</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>70003240</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>ZNEP</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>300</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>20220122</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N64" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="4" t="n"/>
-      <c r="M65" s="4" t="n"/>
-      <c r="N65" s="4" t="n"/>
+      <c r="A65" s="4" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>3820017810</v>
+      </c>
+      <c r="C65" t="n">
+        <v>10</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>70005786</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>ZNPL</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>150</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>20220122</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N65" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="4" t="n"/>
-      <c r="M66" s="4" t="n"/>
-      <c r="N66" s="4" t="n"/>
+      <c r="A66" s="4" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3820017810</v>
+      </c>
+      <c r="C66" t="n">
+        <v>10</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>70003383</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>ZNEP</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>150</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>20220122</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N66" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="4" t="n"/>
-      <c r="M67" s="4" t="n"/>
-      <c r="N67" s="4" t="n"/>
+      <c r="A67" s="4" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3820017819</v>
+      </c>
+      <c r="C67" t="n">
+        <v>40</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>70026985</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="n">
+        <v>150</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>20220122</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N67" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="4" t="n"/>
-      <c r="M68" s="4" t="n"/>
-      <c r="N68" s="4" t="n"/>
+      <c r="A68" s="4" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3820017819</v>
+      </c>
+      <c r="C68" t="n">
+        <v>40</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>70026984</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>150</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>20220122</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N68" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="4" t="n"/>
-      <c r="M69" s="4" t="n"/>
-      <c r="N69" s="4" t="n"/>
+      <c r="A69" s="4" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3820017819</v>
+      </c>
+      <c r="C69" t="n">
+        <v>30</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>70026987</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>120</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>20220122</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N69" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="4" t="n"/>
-      <c r="M70" s="4" t="n"/>
-      <c r="N70" s="4" t="n"/>
+      <c r="A70" s="4" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3820017819</v>
+      </c>
+      <c r="C70" t="n">
+        <v>30</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>70026986</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="n">
+        <v>120</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>20220122</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N70" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="4" t="n"/>
-      <c r="M71" s="4" t="n"/>
-      <c r="N71" s="4" t="n"/>
+      <c r="A71" s="4" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>3820017819</v>
+      </c>
+      <c r="C71" t="n">
+        <v>20</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>70026983</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>200</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>20220122</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N71" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="4" t="n"/>
-      <c r="M72" s="4" t="n"/>
-      <c r="N72" s="4" t="n"/>
+      <c r="A72" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>3820017819</v>
+      </c>
+      <c r="C72" t="n">
+        <v>20</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>70026982</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>200</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>20220122</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N72" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="4" t="n"/>
-      <c r="M73" s="4" t="n"/>
-      <c r="N73" s="4" t="n"/>
+      <c r="A73" s="4" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>3820017819</v>
+      </c>
+      <c r="C73" t="n">
+        <v>10</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>70026991</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>150</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>20220122</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N73" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="4" t="n"/>
-      <c r="M74" s="4" t="n"/>
-      <c r="N74" s="4" t="n"/>
+      <c r="A74" s="4" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>3820017819</v>
+      </c>
+      <c r="C74" t="n">
+        <v>10</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>70026990</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>150</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>20220122</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N74" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="4" t="n"/>
-      <c r="M75" s="4" t="n"/>
-      <c r="N75" s="4" t="n"/>
+      <c r="A75" s="4" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>3820017818</v>
+      </c>
+      <c r="C75" t="n">
+        <v>10</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>70026971</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="n">
+        <v>15000</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>20220122</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N75" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="4" t="n"/>
-      <c r="M76" s="4" t="n"/>
-      <c r="N76" s="4" t="n"/>
+      <c r="A76" s="4" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>3820017787</v>
+      </c>
+      <c r="C76" t="n">
+        <v>10</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>70026843</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>3801</v>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="n">
+        <v>15</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>20220122</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="N76" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="4" t="n"/>
